--- a/97_sample_tj.xlsx
+++ b/97_sample_tj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3488,103 +3488,103 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JSEA160V4Y81FZ</t>
+          <t>HLIR989B7R49YE</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.192676882444534e+18</v>
+        <v>213193773813361</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>brizzi</t>
+          <t>emoney</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R. Legawa Yuliarti, S.Psi</t>
+          <t>Icha Hartati, S.IP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9N</t>
+          <t>JAK.11</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pinang Ranti - Pramuka</t>
+          <t>Tanah Abang - Kebayoran Lama</t>
         </is>
       </c>
       <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>B04168P</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sbr. Ps. Pisang</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>-6.207759</v>
+      </c>
+      <c r="M34" t="n">
+        <v>106.79233</v>
+      </c>
+      <c r="N34" t="n">
+        <v>25</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2023-04-18 07:29:32</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>B04546P</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Sbr. The Jakarta Post</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>-6.207699</v>
+      </c>
+      <c r="S34" t="n">
+        <v>106.79386</v>
+      </c>
+      <c r="T34" t="n">
+        <v>26</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2023-04-18 08:50:46</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
         <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>P00064</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Garuda Taman Mini</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>-6.290154</v>
-      </c>
-      <c r="M34" t="n">
-        <v>106.88116</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>2023-04-07 09:59:49</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>P00016</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>BKN</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>-6.257751</v>
-      </c>
-      <c r="S34" t="n">
-        <v>106.87</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>2023-04-07 10:20:33</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>3500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BMSF794N7G35DO</t>
+          <t>WUNU555A4U56AI</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2246744141931579</v>
+        <v>3579692870866695</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mahdi Wibisono</t>
+          <t>Endra Nababan, M.Farm</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3602,108 +3602,104 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1991</v>
+        <v>2011</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>JAK.22</t>
+          <t>4D</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dwikora - Penas Kalimalang</t>
+          <t>Pulo Gadung 2 - Kuningan</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>B02956P</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Pos Jaga Trikora 1</t>
+          <t>Kuningan Madya</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>-6.241638</v>
+        <v>-6.21341</v>
       </c>
       <c r="M35" t="n">
-        <v>106.87981</v>
+        <v>106.8305</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-04-14 20:22:01</t>
+          <t>2023-04-07 06:09:07</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>B03321P</t>
+          <t>P00188</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>SD Angkasa 7</t>
+          <t>Pramuka BPKP</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>-6.25083</v>
+        <v>-6.192192</v>
       </c>
       <c r="S35" t="n">
-        <v>106.88358</v>
+        <v>106.87401</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2023-04-14 22:09:56</t>
+          <t>2023-04-07 06:56:03</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HLIR989B7R49YE</t>
+          <t>NQHH741D6Z94JX</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>213193773813361</v>
+        <v>6011275975124621</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>emoney</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Icha Hartati, S.IP</t>
+          <t>Drs. Puspa Nashiruddin</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>JAK.11</t>
+          <t>M7B</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tanah Abang - Kebayoran Lama</t>
+          <t>BKN - Blok M</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3711,73 +3707,73 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>B04168P</t>
+          <t>B03319P</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sbr. Ps. Pisang</t>
+          <t>SD 01 Taman Mpu Sendok</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>-6.207759</v>
+        <v>-6.231785</v>
       </c>
       <c r="M36" t="n">
-        <v>106.79233</v>
+        <v>106.81025</v>
       </c>
       <c r="N36" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-04-18 07:29:32</t>
+          <t>2023-04-18 21:54:40</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>B04546P</t>
+          <t>B05437P</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Sbr. The Jakarta Post</t>
+          <t>St. Duren Kalibata 1</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>-6.207699</v>
+        <v>-6.255579</v>
       </c>
       <c r="S36" t="n">
-        <v>106.79386</v>
+        <v>106.85422</v>
       </c>
       <c r="T36" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2023-04-18 08:50:46</t>
+          <t>2023-04-18 23:06:38</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WUNU555A4U56AI</t>
+          <t>SHXE796U2R84RS</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3579692870866695</v>
+        <v>4.015639837568333e+18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>brizzi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Endra Nababan, M.Farm</t>
+          <t>Karimah Salahudin</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3786,63 +3782,67 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2011</v>
+        <v>1992</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4D</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pulo Gadung 2 - Kuningan</t>
+          <t>Ciledug - Tendean</t>
         </is>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>P00197</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Puri Beta 1</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>-6.230596</v>
+      </c>
+      <c r="M37" t="n">
+        <v>106.72602</v>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Kuningan Madya</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>-6.21341</v>
-      </c>
-      <c r="M37" t="n">
-        <v>106.8305</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4</v>
-      </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-04-07 06:09:07</t>
+          <t>2023-04-05 16:57:51</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>P00188</t>
+          <t>P00106</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Pramuka BPKP</t>
+          <t>Kebayoran Lama</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>-6.192192</v>
+        <v>-6.23834</v>
       </c>
       <c r="S37" t="n">
-        <v>106.87401</v>
+        <v>106.77752</v>
       </c>
       <c r="T37" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2023-04-07 06:56:03</t>
+          <t>2023-04-05 18:03:35</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -3852,11 +3852,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NQHH741D6Z94JX</t>
+          <t>QGEZ414E4G39RT</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6011275975124621</v>
+        <v>4266760335382388</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Drs. Puspa Nashiruddin</t>
+          <t>Hari Maulana</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3874,16 +3874,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1982</v>
+        <v>2002</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>M7B</t>
+          <t>JAK.41</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>BKN - Blok M</t>
+          <t>Kampung Melayu - Pulo Gadung</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3891,64 +3891,64 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>B03319P</t>
+          <t>B04486P</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>SD 01 Taman Mpu Sendok</t>
+          <t>Sbr. SMPN 232</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>-6.231785</v>
+        <v>-6.202926</v>
       </c>
       <c r="M38" t="n">
-        <v>106.81025</v>
+        <v>106.88278</v>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-04-18 21:54:40</t>
+          <t>2023-04-11 18:03:23</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>B05437P</t>
+          <t>B04805P</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>St. Duren Kalibata 1</t>
+          <t>Simpang Gading Pori Raya</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>-6.255579</v>
+        <v>-6.209232</v>
       </c>
       <c r="S38" t="n">
-        <v>106.85422</v>
+        <v>106.88153</v>
       </c>
       <c r="T38" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2023-04-18 23:06:38</t>
+          <t>2023-04-11 19:04:44</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SHXE796U2R84RS</t>
+          <t>VCVK688K5O65LA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.015639837568333e+18</v>
+        <v>4.298112060738898e+18</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3957,25 +3957,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Karimah Salahudin</t>
+          <t>Karen Zulaika</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1992</v>
+        <v>1970</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>JAK.44</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ciledug - Tendean</t>
+          <t>Andara - Stasiun Universitas Pancasila</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3983,91 +3983,91 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>P00197</t>
+          <t>B06833P</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Puri Beta 1</t>
+          <t>Jln. Raya Lenteng Agung</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>-6.230596</v>
+        <v>-6.335654</v>
       </c>
       <c r="M39" t="n">
-        <v>106.72602</v>
+        <v>106.83535</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-04-05 16:57:51</t>
+          <t>2023-04-20 19:05:58</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>P00106</t>
+          <t>B05515P</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Kebayoran Lama</t>
+          <t>St. Univ. Pancasila Jak Lingko</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>-6.23834</v>
+        <v>-6.338987</v>
       </c>
       <c r="S39" t="n">
-        <v>106.77752</v>
+        <v>106.83458</v>
       </c>
       <c r="T39" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2023-04-05 18:03:35</t>
+          <t>2023-04-20 20:28:12</t>
         </is>
       </c>
       <c r="V39" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>QGEZ414E4G39RT</t>
+          <t>VITE272U6C01JI</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4266760335382388</v>
+        <v>213109439786494</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>emoney</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hari Maulana</t>
+          <t>Muni Saragih</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>JAK.41</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Kampung Melayu - Pulo Gadung</t>
+          <t>Pulo Gadung - Monas</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -4075,142 +4075,142 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>B04486P</t>
+          <t>P00150</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sbr. SMPN 232</t>
+          <t>Pasar Cempaka Putih</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>-6.202926</v>
+        <v>-6.172325</v>
       </c>
       <c r="M40" t="n">
-        <v>106.88278</v>
+        <v>106.86246</v>
       </c>
       <c r="N40" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-04-11 18:03:23</t>
+          <t>2023-04-07 21:48:31</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>B04805P</t>
+          <t>P00005</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Simpang Gading Pori Raya</t>
+          <t>ASMI</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>-6.209232</v>
+        <v>-6.171797</v>
       </c>
       <c r="S40" t="n">
-        <v>106.88153</v>
+        <v>106.8888</v>
       </c>
       <c r="T40" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2023-04-11 19:04:44</t>
+          <t>2023-04-07 23:20:00</t>
         </is>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VCVK688K5O65LA</t>
+          <t>MNAG544Y9H54GX</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.298112060738898e+18</v>
+        <v>630411801479</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brizzi</t>
+          <t>flazz</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Karen Zulaika</t>
+          <t>Hasim Utami</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1970</v>
+        <v>1994</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>JAK.44</t>
+          <t>JAK.16</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Andara - Stasiun Universitas Pancasila</t>
+          <t>Cililitan - Condet</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>B06833P</t>
+          <t>B02638P</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Jln. Raya Lenteng Agung</t>
+          <t>Ps. Kramat Jati 2</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>-6.335654</v>
+        <v>-6.269037</v>
       </c>
       <c r="M41" t="n">
-        <v>106.83535</v>
+        <v>106.86664</v>
       </c>
       <c r="N41" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-04-20 19:05:58</t>
+          <t>2023-04-19 06:21:07</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>B05515P</t>
+          <t>B02828P</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>St. Univ. Pancasila Jak Lingko</t>
+          <t>PGC Dalam</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>-6.338987</v>
+        <v>-6.261841</v>
       </c>
       <c r="S41" t="n">
-        <v>106.83458</v>
+        <v>106.8657</v>
       </c>
       <c r="T41" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2023-04-20 20:28:12</t>
+          <t>2023-04-19 07:19:32</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -4220,25 +4220,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>VITE272U6C01JI</t>
+          <t>XCYH143S5Y85HJ</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>213109439786494</v>
+        <v>4247047725165183</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>emoney</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Muni Saragih</t>
+          <t>Danang Santoso</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4246,155 +4246,155 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>JAK.06</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pulo Gadung - Monas</t>
+          <t>Kampung Rambutan - Pondok Gede</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>P00150</t>
+          <t>B05387P</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Pasar Cempaka Putih</t>
+          <t>SMPN 6 Bekasi</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>-6.172325</v>
+        <v>-6.28259</v>
       </c>
       <c r="M42" t="n">
-        <v>106.86246</v>
+        <v>106.91272</v>
       </c>
       <c r="N42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-04-07 21:48:31</t>
+          <t>2023-04-19 08:23:16</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>P00005</t>
+          <t>B01539P</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>ASMI</t>
+          <t>Jln. Rawa Segaran</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>-6.171797</v>
+        <v>-6.306765</v>
       </c>
       <c r="S42" t="n">
-        <v>106.8888</v>
+        <v>106.8919</v>
       </c>
       <c r="T42" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2023-04-07 23:20:00</t>
+          <t>2023-04-19 08:55:09</t>
         </is>
       </c>
       <c r="V42" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MNAG544Y9H54GX</t>
+          <t>XJUP411Q2P00WY</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>630411801479</v>
+        <v>4433768133150830</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>flazz</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hasim Utami</t>
+          <t>Hendra Simbolon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>JAK.16</t>
+          <t>JAK.17</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cililitan - Condet</t>
+          <t>Senen - Pulo Gadung</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>B02638P</t>
+          <t>B00083P</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Ps. Kramat Jati 2</t>
+          <t>Atrium 1</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>-6.269037</v>
+        <v>-6.177759</v>
       </c>
       <c r="M43" t="n">
-        <v>106.86664</v>
+        <v>106.8412</v>
       </c>
       <c r="N43" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-04-19 06:21:07</t>
+          <t>2023-04-27 05:43:48</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>B02828P</t>
+          <t>B04647P</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>PGC Dalam</t>
+          <t>Sekolah Penabur Gunung Sahari</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>-6.261841</v>
+        <v>-6.170053</v>
       </c>
       <c r="S43" t="n">
-        <v>106.8657</v>
+        <v>106.84024</v>
       </c>
       <c r="T43" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2023-04-19 07:19:32</t>
+          <t>2023-04-27 06:28:01</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -4404,20 +4404,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>XCYH143S5Y85HJ</t>
+          <t>ZDRS301X4J09PG</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4247047725165183</v>
+        <v>30240183284849</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>bni</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Danang Santoso</t>
+          <t>drg. Ellis Gunawan</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4430,63 +4430,59 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>JAK.06</t>
+          <t>2E</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Kampung Rambutan - Pondok Gede</t>
+          <t>Rusun Rawa Bebek - Kodamar</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>B05387P</t>
+          <t>B00823P</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>SMPN 6 Bekasi</t>
+          <t>Jagal 2</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>-6.28259</v>
+        <v>-6.190792</v>
       </c>
       <c r="M44" t="n">
-        <v>106.91272</v>
+        <v>106.93472</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-04-19 08:23:16</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>B01539P</t>
-        </is>
-      </c>
+          <t>2023-04-15 13:14:33</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Jln. Rawa Segaran</t>
+          <t>Walikota Jakarta Timur 1</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>-6.306765</v>
+        <v>-6.212327</v>
       </c>
       <c r="S44" t="n">
-        <v>106.8919</v>
+        <v>106.94515</v>
       </c>
       <c r="T44" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2023-04-19 08:55:09</t>
+          <t>2023-04-15 14:48:46</t>
         </is>
       </c>
       <c r="V44" t="n">
@@ -4496,11 +4492,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>XJUP411Q2P00WY</t>
+          <t>CGWU998L0P53PK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4433768133150830</v>
+        <v>4389022563393310</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -4509,178 +4505,182 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hendra Simbolon</t>
+          <t>Titi Prasetya</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1984</v>
+        <v>2002</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>JAK.17</t>
+          <t>1P</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Senen - Pulo Gadung</t>
+          <t>Senen - Blok M</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>B00083P</t>
+          <t>B00222P</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Atrium 1</t>
+          <t>Bundaran Senayan 2</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>-6.177759</v>
+        <v>-6.227877</v>
       </c>
       <c r="M45" t="n">
-        <v>106.8412</v>
+        <v>106.80068</v>
       </c>
       <c r="N45" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-04-27 05:43:48</t>
+          <t>2023-04-03 17:48:26</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>B04647P</t>
+          <t>B00694P</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Sekolah Penabur Gunung Sahari</t>
+          <t>Grand Sahid</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>-6.170053</v>
+        <v>-6.210975</v>
       </c>
       <c r="S45" t="n">
-        <v>106.84024</v>
+        <v>106.82059</v>
       </c>
       <c r="T45" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2023-04-27 06:28:01</t>
+          <t>2023-04-03 19:11:26</t>
         </is>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ZDRS301X4J09PG</t>
+          <t>GYTO210B2L40CI</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30240183284849</v>
+        <v>3528429476454085</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>bni</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>drg. Ellis Gunawan</t>
+          <t>Tgk. Gawati Hardiansyah</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2006</v>
+        <v>1976</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2E</t>
+          <t>1P</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rusun Rawa Bebek - Kodamar</t>
+          <t>Senen - Blok M</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>B00823P</t>
+          <t>B04647P</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Jagal 2</t>
+          <t>Sekolah Penabur Gunung Sahari</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>-6.190792</v>
+        <v>-6.170053</v>
       </c>
       <c r="M46" t="n">
-        <v>106.93472</v>
+        <v>106.84024</v>
       </c>
       <c r="N46" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-04-15 13:14:33</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr"/>
+          <t>2023-04-14 16:58:34</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>B00360P</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Walikota Jakarta Timur 1</t>
+          <t>Flyover Karet 2</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>-6.212327</v>
+        <v>-6.214808</v>
       </c>
       <c r="S46" t="n">
-        <v>106.94515</v>
+        <v>106.81847</v>
       </c>
       <c r="T46" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>2023-04-15 14:48:46</t>
+          <t>2023-04-14 18:04:47</t>
         </is>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CGWU998L0P53PK</t>
+          <t>ESOO548F9P75YU</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4389022563393310</v>
+        <v>6011822091986589</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Titi Prasetya</t>
+          <t>Yosef Novitasari, M.M.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2002</v>
+        <v>1984</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4711,54 +4711,54 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>B00222P</t>
+          <t>B00221P</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bundaran Senayan 2</t>
+          <t>Bundaran Senayan 1</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>-6.227877</v>
+        <v>-6.227445</v>
       </c>
       <c r="M47" t="n">
-        <v>106.80068</v>
+        <v>106.80187</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-04-03 17:48:26</t>
+          <t>2023-04-04 20:18:27</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>B00694P</t>
+          <t>B05637P</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Grand Sahid</t>
+          <t>Taman Patimura</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>-6.210975</v>
+        <v>-6.232872</v>
       </c>
       <c r="S47" t="n">
-        <v>106.82059</v>
+        <v>106.80081</v>
       </c>
       <c r="T47" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2023-04-03 19:11:26</t>
+          <t>2023-04-04 21:12:22</t>
         </is>
       </c>
       <c r="V47" t="n">
@@ -4768,20 +4768,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GYTO210B2L40CI</t>
+          <t>FUJB426M8J57TQ</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3528429476454085</v>
+        <v>676379677179</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>flazz</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tgk. Gawati Hardiansyah</t>
+          <t>Jamalia Rahmawati, M.Farm</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4790,67 +4790,63 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1976</v>
+        <v>1951</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1P</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Senen - Blok M</t>
+          <t>Kampung Rambutan - Monas</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>B04647P</t>
+          <t>P00018</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sekolah Penabur Gunung Sahari</t>
+          <t>BNN Arah Barat</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>-6.170053</v>
+        <v>-6.24651</v>
       </c>
       <c r="M48" t="n">
-        <v>106.84024</v>
+        <v>106.87318</v>
       </c>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-04-14 16:58:34</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>B00360P</t>
-        </is>
-      </c>
+          <t>2023-04-21 09:26:50</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Flyover Karet 2</t>
+          <t>Cawang UKI</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>-6.214808</v>
+        <v>-6.250309</v>
       </c>
       <c r="S48" t="n">
-        <v>106.81847</v>
+        <v>106.8736</v>
       </c>
       <c r="T48" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2023-04-14 18:04:47</t>
+          <t>2023-04-21 11:15:22</t>
         </is>
       </c>
       <c r="V48" t="n">
@@ -4860,20 +4856,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HROQ947G5J38UU</t>
+          <t>HXBY309N8D48JT</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>213165965158193</v>
+        <v>3507107976417837</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>emoney</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Icha Novitasari</t>
+          <t>Gatra Rahayu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4882,67 +4878,67 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2003</v>
+        <v>1946</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6V</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Tanjung Priok - PGC 2</t>
+          <t>Ragunan - Gelora Bung Karno</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>P00272</t>
+          <t>P00053</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Walikota Jakarta Utara Arah Utara</t>
+          <t>Duren Tiga</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>-6.118842</v>
+        <v>-6.252377</v>
       </c>
       <c r="M49" t="n">
-        <v>106.89314</v>
+        <v>106.82697</v>
       </c>
       <c r="N49" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-04-08 06:35:18</t>
+          <t>2023-04-17 06:03:16</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>P00055</t>
+          <t>P00133</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Enggano</t>
+          <t>Masjid Agung</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>-6.11015</v>
+        <v>-6.236483</v>
       </c>
       <c r="S49" t="n">
-        <v>106.89242</v>
+        <v>106.79845</v>
       </c>
       <c r="T49" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2023-04-08 09:34:06</t>
+          <t>2023-04-17 07:00:03</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -4952,11 +4948,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ESOO548F9P75YU</t>
+          <t>RGSA980Q9G58OS</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6011822091986589</v>
+        <v>2247096843683316</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -4965,7 +4961,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Yosef Novitasari, M.M.</t>
+          <t>Tgk. Aris Pradipta, M.M.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4974,16 +4970,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1984</v>
+        <v>2010</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1P</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Senen - Blok M</t>
+          <t>Jakarta International Stadium - Senen</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4991,50 +4987,50 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>B00221P</t>
+          <t>B04517P</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bundaran Senayan 1</t>
+          <t>Sbr. Sunter Icon</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>-6.227445</v>
+        <v>-6.134808</v>
       </c>
       <c r="M50" t="n">
-        <v>106.80187</v>
+        <v>106.85595</v>
       </c>
       <c r="N50" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-04-04 20:18:27</t>
+          <t>2023-04-04 16:24:13</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>B05637P</t>
+          <t>B00292P</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Taman Patimura</t>
+          <t>Danau Agung 1</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>-6.232872</v>
+        <v>-6.147281</v>
       </c>
       <c r="S50" t="n">
-        <v>106.80081</v>
+        <v>106.8582</v>
       </c>
       <c r="T50" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2023-04-04 21:12:22</t>
+          <t>2023-04-04 18:15:26</t>
         </is>
       </c>
       <c r="V50" t="n">
@@ -5044,38 +5040,38 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SXYP878K4I58PP</t>
+          <t>PBKL273X8W05OO</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>345391204076258</v>
+        <v>30539788142538</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>emoney</t>
+          <t>bni</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kayla Samosir</t>
+          <t>KH. Asmuni Utama</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>JAK.49</t>
+          <t>JAK.61</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Lebak Bulus - Cipulir</t>
+          <t>Cempaka Putih - Pulo Gadung via Kelapa Gading</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -5083,50 +5079,50 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>B03217P</t>
+          <t>B04395P</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>RSUD Pesanggrahan</t>
+          <t>Sbr. Sekolah Saint Caroline</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>-6.258241</v>
+        <v>-6.157308</v>
       </c>
       <c r="M51" t="n">
-        <v>106.75706</v>
+        <v>106.87164</v>
       </c>
       <c r="N51" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-04-14 20:13:06</t>
+          <t>2023-04-25 19:20:00</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>B02248P</t>
+          <t>B03246P</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Masjid Al Jihad Ulujami</t>
+          <t>Ruko Mega Grosir Cempaka Mas</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>-6.254771</v>
+        <v>-6.167009</v>
       </c>
       <c r="S51" t="n">
-        <v>106.76348</v>
+        <v>106.87376</v>
       </c>
       <c r="T51" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2023-04-14 22:06:12</t>
+          <t>2023-04-25 20:38:32</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -5136,11 +5132,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FUJB426M8J57TQ</t>
+          <t>QTTJ061L5L86TF</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>676379677179</v>
+        <v>572544509597</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5149,7 +5145,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jamalia Rahmawati, M.Farm</t>
+          <t>drg. Kayun Safitri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -5158,63 +5154,67 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1951</v>
+        <v>1987</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>M7</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Kampung Rambutan - Monas</t>
+          <t>Kalideres - Bundaran HI via Veteran</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>P00018</t>
+          <t>P00074</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BNN Arah Barat</t>
+          <t>Grogol 1</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>-6.24651</v>
+        <v>-6.166824</v>
       </c>
       <c r="M52" t="n">
-        <v>106.87318</v>
+        <v>106.78971</v>
       </c>
       <c r="N52" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-04-21 09:26:50</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
+          <t>2023-04-21 20:44:58</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>P00237</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Cawang UKI</t>
+          <t>Sumur Bor</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>-6.250309</v>
+        <v>-6.153046</v>
       </c>
       <c r="S52" t="n">
-        <v>106.8736</v>
+        <v>106.71929</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2023-04-21 11:15:22</t>
+          <t>2023-04-21 22:13:49</t>
         </is>
       </c>
       <c r="V52" t="n">
@@ -5224,20 +5224,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HXBY309N8D48JT</t>
+          <t>CMOB446O8Q16RJ</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3507107976417837</v>
+        <v>343868065903417</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>emoney</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Gatra Rahayu</t>
+          <t>Cut Cici Nasyidah, S.Pd</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5246,67 +5246,67 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1946</v>
+        <v>1973</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6V</t>
+          <t>7C</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Ragunan - Gelora Bung Karno</t>
+          <t>Cibubur - BKN</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>P00053</t>
+          <t>B00226P</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Duren Tiga</t>
+          <t>Buperta Cibubur</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>-6.252377</v>
+        <v>-6.370321</v>
       </c>
       <c r="M53" t="n">
-        <v>106.82697</v>
+        <v>106.89628</v>
       </c>
       <c r="N53" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-04-17 06:03:16</t>
+          <t>2023-04-09 17:21:59</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>P00133</t>
+          <t>B00248P</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Masjid Agung</t>
+          <t>Cibubur Junction</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>-6.236483</v>
+        <v>-6.368735</v>
       </c>
       <c r="S53" t="n">
-        <v>106.79845</v>
+        <v>106.89366</v>
       </c>
       <c r="T53" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2023-04-17 07:00:03</t>
+          <t>2023-04-09 18:32:54</t>
         </is>
       </c>
       <c r="V53" t="n">
@@ -5316,11 +5316,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RGSA980Q9G58OS</t>
+          <t>QZYN927H9O06VO</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2247096843683316</v>
+        <v>2267435685058176</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tgk. Aris Pradipta, M.M.</t>
+          <t>R.M. Simon Wastuti, S.T.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5338,16 +5338,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>JAK.20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Jakarta International Stadium - Senen</t>
+          <t>Cawang UKI - Lubang Buaya</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -5355,64 +5355,64 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>B04517P</t>
+          <t>B03553P</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sbr. Sunter Icon</t>
+          <t>Sbr. Gg. Pos Komodor</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>-6.134808</v>
+        <v>-6.265515</v>
       </c>
       <c r="M54" t="n">
-        <v>106.85595</v>
+        <v>106.88332</v>
       </c>
       <c r="N54" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-04-04 16:24:13</t>
+          <t>2023-04-04 05:31:39</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>B00292P</t>
+          <t>B05751P</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Danau Agung 1</t>
+          <t>TK Angkasa 8</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>-6.147281</v>
+        <v>-6.285191</v>
       </c>
       <c r="S54" t="n">
-        <v>106.8582</v>
+        <v>106.90125</v>
       </c>
       <c r="T54" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2023-04-04 18:15:26</t>
+          <t>2023-04-04 06:12:27</t>
         </is>
       </c>
       <c r="V54" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>XTGC774Z4Y96BS</t>
+          <t>TIZD791H3W95RT</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4490538004709364</v>
+        <v>4996225095064169</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -5421,25 +5421,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ajeng Pradipta</t>
+          <t>Emong Wastuti</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1975</v>
+        <v>1992</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>R1A</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Tanjung Priok - PGC 2</t>
+          <t>Pantai Maju - Kota</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -5447,46 +5447,50 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>P00232</t>
+          <t>B02389P</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Stasiun Jatinegara Arah Utara</t>
+          <t>Mayang Permai</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>-6.21542</v>
+        <v>-6.116421</v>
       </c>
       <c r="M55" t="n">
-        <v>106.8742</v>
+        <v>106.75963</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-04-28 05:59:09</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr"/>
+          <t>2023-04-05 16:02:16</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>B04990P</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Permai Koja Arah Utara</t>
+          <t>Simpang Mandara Permai 2</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>-6.11413</v>
+        <v>-6.116512</v>
       </c>
       <c r="S55" t="n">
-        <v>106.89309</v>
+        <v>106.75622</v>
       </c>
       <c r="T55" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2023-04-28 06:27:10</t>
+          <t>2023-04-05 17:42:21</t>
         </is>
       </c>
       <c r="V55" t="n">
@@ -5496,20 +5500,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PBKL273X8W05OO</t>
+          <t>MBCS184S6G98MQ</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>30539788142538</v>
+        <v>563170787110</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>bni</t>
+          <t>flazz</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>KH. Asmuni Utama</t>
+          <t>Azalea Winarsih</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5518,67 +5522,67 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>JAK.61</t>
+          <t>JAK.58</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Cempaka Putih - Pulo Gadung via Kelapa Gading</t>
+          <t>Cilincing - Rorotan</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>B04395P</t>
+          <t>B01930P</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Sbr. Sekolah Saint Caroline</t>
+          <t>Kel. Marunda</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>-6.157308</v>
+        <v>-6.124938</v>
       </c>
       <c r="M56" t="n">
-        <v>106.87164</v>
+        <v>106.95818</v>
       </c>
       <c r="N56" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-04-25 19:20:00</t>
+          <t>2023-04-07 21:57:37</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>B03246P</t>
+          <t>B02180P</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Ruko Mega Grosir Cempaka Mas</t>
+          <t>Malaka 1 Gg. Veteran</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>-6.167009</v>
+        <v>-6.147191</v>
       </c>
       <c r="S56" t="n">
-        <v>106.87376</v>
+        <v>106.95636</v>
       </c>
       <c r="T56" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>2023-04-25 20:38:32</t>
+          <t>2023-04-07 23:39:39</t>
         </is>
       </c>
       <c r="V56" t="n">
@@ -5588,20 +5592,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>QTTJ061L5L86TF</t>
+          <t>RNXS511J9A63KD</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>572544509597</v>
+        <v>4.814740608115623e+18</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>flazz</t>
+          <t>brizzi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>drg. Kayun Safitri</t>
+          <t>dr. Embuh Wijaya</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5610,16 +5614,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1987</v>
+        <v>2001</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>6N</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Kalideres - Bundaran HI via Veteran</t>
+          <t>Ragunan - Blok M via Kemang</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -5627,50 +5631,50 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>P00074</t>
+          <t>B01265P</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Grogol 1</t>
+          <t>Kemang Raya 40</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>-6.166824</v>
+        <v>-6.265429</v>
       </c>
       <c r="M57" t="n">
-        <v>106.78971</v>
+        <v>106.81602</v>
       </c>
       <c r="N57" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-04-21 20:44:58</t>
+          <t>2023-04-27 19:00:47</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>P00237</t>
+          <t>B03048P</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Sumur Bor</t>
+          <t>Puskesmas Kebayoran Baru</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>-6.153046</v>
+        <v>-6.247225</v>
       </c>
       <c r="S57" t="n">
-        <v>106.71929</v>
+        <v>106.80572</v>
       </c>
       <c r="T57" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2023-04-21 22:13:49</t>
+          <t>2023-04-27 20:08:46</t>
         </is>
       </c>
       <c r="V57" t="n">
@@ -5680,38 +5684,38 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>QNBF041F4W87BD</t>
+          <t>PUQK432L8I40JX</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3521790276677051</v>
+        <v>60403675436</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>flazz</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>H. Darmana Safitri, M.M.</t>
+          <t>Dr. Taufan Jailani</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>JAK.39</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Kalimalang - Duren Sawit</t>
+          <t>Depok - BKN</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -5719,73 +5723,73 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>B01424P</t>
+          <t>B00106P</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Jln. Nusa Indah IV</t>
+          <t>Balaikota Depok 2</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>-6.218007</v>
+        <v>-6.394973</v>
       </c>
       <c r="M58" t="n">
-        <v>106.93406</v>
+        <v>106.82277</v>
       </c>
       <c r="N58" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-04-20 18:27:50</t>
+          <t>2023-04-21 08:56:15</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>B05290P</t>
+          <t>B05703P</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>SMK Bina Darma DKI</t>
+          <t>Term. Depok Baru</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>-6.220551</v>
+        <v>-6.391068</v>
       </c>
       <c r="S58" t="n">
-        <v>106.92073</v>
+        <v>106.82251</v>
       </c>
       <c r="T58" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2023-04-20 19:37:09</t>
+          <t>2023-04-21 10:15:02</t>
         </is>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CMOB446O8Q16RJ</t>
+          <t>CYCJ299W5T70EV</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>343868065903417</v>
+        <v>4723250872219869</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>emoney</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cut Cici Nasyidah, S.Pd</t>
+          <t>Cager Setiawan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5794,251 +5798,251 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>7C</t>
+          <t>JAK.43B</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Cibubur - BKN</t>
+          <t>Tongtek - Tebet Eco Park (TEP) - Cililitan</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>B00226P</t>
+          <t>B03675P</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Buperta Cibubur</t>
+          <t>Sbr. Jln. Cikoko Timur I</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>-6.370321</v>
+        <v>-6.244364</v>
       </c>
       <c r="M59" t="n">
-        <v>106.89628</v>
+        <v>106.85867</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-04-09 17:21:59</t>
+          <t>2023-04-28 05:13:13</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>B00248P</t>
+          <t>B05440P</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Cibubur Junction</t>
+          <t>St. Duren Kalibata 4</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>-6.368735</v>
+        <v>-6.255071</v>
       </c>
       <c r="S59" t="n">
-        <v>106.89366</v>
+        <v>106.85506</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2023-04-09 18:32:54</t>
+          <t>2023-04-28 05:57:25</t>
         </is>
       </c>
       <c r="V59" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>QZYN927H9O06VO</t>
+          <t>FCIT134Y2T38MO</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2267435685058176</v>
+        <v>573942256138</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>flazz</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R.M. Simon Wastuti, S.T.</t>
+          <t>Xanana Hartati</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1995</v>
+        <v>1981</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>JAK.20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cawang UKI - Lubang Buaya</t>
+          <t>Lebak Bulus - Pasar Baru via Tomang</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>B03553P</t>
+          <t>P00054</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Sbr. Gg. Pos Komodor</t>
+          <t>Duri Kepa</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>-6.265515</v>
+        <v>-6.185266</v>
       </c>
       <c r="M60" t="n">
-        <v>106.88332</v>
+        <v>106.76842</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-04-04 05:31:39</t>
+          <t>2023-04-14 18:05:01</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>B05751P</t>
+          <t>P00108</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>TK Angkasa 8</t>
+          <t>Kebon Jeruk</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>-6.285191</v>
+        <v>-6.194311</v>
       </c>
       <c r="S60" t="n">
-        <v>106.90125</v>
+        <v>106.76887</v>
       </c>
       <c r="T60" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2023-04-04 06:12:27</t>
+          <t>2023-04-14 19:01:10</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TIZD791H3W95RT</t>
+          <t>BGVQ803F5X46HW</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4996225095064169</v>
+        <v>4461146257530</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Emong Wastuti</t>
+          <t>dr. Wisnu Wulandari</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1992</v>
+        <v>1974</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R1A</t>
+          <t>9N</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pantai Maju - Kota</t>
+          <t>Pinang Ranti - Pramuka</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>B02389P</t>
+          <t>P00179</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Mayang Permai</t>
+          <t>Pinang Ranti</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>-6.116421</v>
+        <v>-6.291075</v>
       </c>
       <c r="M61" t="n">
-        <v>106.75963</v>
+        <v>106.88634</v>
       </c>
       <c r="N61" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-04-05 16:02:16</t>
+          <t>2023-04-28 17:07:29</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>B04990P</t>
+          <t>P00016</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Simpang Mandara Permai 2</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>-6.116512</v>
+        <v>-6.257751</v>
       </c>
       <c r="S61" t="n">
-        <v>106.75622</v>
+        <v>106.87</v>
       </c>
       <c r="T61" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2023-04-05 17:42:21</t>
+          <t>2023-04-28 18:58:39</t>
         </is>
       </c>
       <c r="V61" t="n">
@@ -6048,38 +6052,38 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MBCS184S6G98MQ</t>
+          <t>LMZA751Z0H70BP</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>563170787110</v>
+        <v>6505428590869475</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>flazz</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Azalea Winarsih</t>
+          <t>dr. Janet Budiyanto</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1994</v>
+        <v>1965</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>JAK.58</t>
+          <t>4E</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Cilincing - Rorotan</t>
+          <t>Rusun Jatinegara Kaum - Pulo Gadung</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -6087,50 +6091,50 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>B01930P</t>
+          <t>B02943P</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Kel. Marunda</t>
+          <t>Pool Mayasari Bakti</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>-6.124938</v>
+        <v>-6.202095</v>
       </c>
       <c r="M62" t="n">
-        <v>106.95818</v>
+        <v>106.90445</v>
       </c>
       <c r="N62" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-04-07 21:57:37</t>
+          <t>2023-04-16 07:18:42</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>B02180P</t>
+          <t>B02946P</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Malaka 1 Gg. Veteran</t>
+          <t>Pool PPD Kec. Pulo Gadung</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>-6.147191</v>
+        <v>-6.199649</v>
       </c>
       <c r="S62" t="n">
-        <v>106.95636</v>
+        <v>106.90477</v>
       </c>
       <c r="T62" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>2023-04-07 23:39:39</t>
+          <t>2023-04-16 07:52:51</t>
         </is>
       </c>
       <c r="V62" t="n">
@@ -6140,20 +6144,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RNXS511J9A63KD</t>
+          <t>DXHC978A4N00CO</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.814740608115623e+18</v>
+        <v>4228391009711723</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>brizzi</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>dr. Embuh Wijaya</t>
+          <t>Nurul Hartati</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6162,173 +6166,173 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>6N</t>
+          <t>12F</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Ragunan - Blok M via Kemang</t>
+          <t>Rusun Marunda - Rusun Waduk Pluit</t>
         </is>
       </c>
       <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>B06292P</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Gg. Elektro</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>-6.114359</v>
+      </c>
+      <c r="M63" t="n">
+        <v>106.80286</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2023-04-25 18:22:26</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>B05530P</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>STIP</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>-6.104402</v>
+      </c>
+      <c r="S63" t="n">
+        <v>106.95904</v>
+      </c>
+      <c r="T63" t="n">
+        <v>10</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>2023-04-25 19:53:30</t>
+        </is>
+      </c>
+      <c r="V63" t="n">
         <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>B01265P</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Kemang Raya 40</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>-6.265429</v>
-      </c>
-      <c r="M63" t="n">
-        <v>106.81602</v>
-      </c>
-      <c r="N63" t="n">
-        <v>16</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>2023-04-27 19:00:47</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>B03048P</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Puskesmas Kebayoran Baru</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>-6.247225</v>
-      </c>
-      <c r="S63" t="n">
-        <v>106.80572</v>
-      </c>
-      <c r="T63" t="n">
-        <v>24</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>2023-04-27 20:08:46</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v>3500</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PUQK432L8I40JX</t>
+          <t>XPRX406Q4W04LM</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>60403675436</v>
+        <v>30294523538109</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>flazz</t>
+          <t>bni</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Dr. Taufan Jailani</t>
+          <t>Drs. Darsirah Sitompul, S.H.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1989</v>
+        <v>2012</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>2H</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Depok - BKN</t>
+          <t>Rusun Jati Rawasari - Senen</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>B00106P</t>
+          <t>B00770P</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Balaikota Depok 2</t>
+          <t>Honda Letjen Suprapto</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>-6.394973</v>
+        <v>-6.174933</v>
       </c>
       <c r="M64" t="n">
-        <v>106.82277</v>
+        <v>106.84973</v>
       </c>
       <c r="N64" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-04-21 08:56:15</t>
+          <t>2023-04-26 17:47:31</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>B05703P</t>
+          <t>B03199P</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Term. Depok Baru</t>
+          <t>RSPAD 1</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>-6.391068</v>
+        <v>-6.176162</v>
       </c>
       <c r="S64" t="n">
-        <v>106.82251</v>
+        <v>106.83987</v>
       </c>
       <c r="T64" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2023-04-21 10:15:02</t>
+          <t>2023-04-26 19:46:40</t>
         </is>
       </c>
       <c r="V64" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CYCJ299W5T70EV</t>
+          <t>NHQU475U4M22YI</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4723250872219869</v>
+        <v>4612175181278450</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -6337,7 +6341,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cager Setiawan</t>
+          <t>Mahmud Haryanti</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -6350,12 +6354,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>JAK.43B</t>
+          <t>JAK.24</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tongtek - Tebet Eco Park (TEP) - Cililitan</t>
+          <t>Senen - Pulo Gadung via Kelapa Gading</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -6363,50 +6367,50 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>B03675P</t>
+          <t>B04462P</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Sbr. Jln. Cikoko Timur I</t>
+          <t>Sbr. SMPN 10</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>-6.244364</v>
+        <v>-6.163653</v>
       </c>
       <c r="M65" t="n">
-        <v>106.85867</v>
+        <v>106.86516</v>
       </c>
       <c r="N65" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-04-28 05:13:13</t>
+          <t>2023-04-13 21:07:01</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>B05440P</t>
+          <t>B05725P</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>St. Duren Kalibata 4</t>
+          <t>Term. Senen</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>-6.255071</v>
+        <v>-6.17356</v>
       </c>
       <c r="S65" t="n">
-        <v>106.85506</v>
+        <v>106.84213</v>
       </c>
       <c r="T65" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2023-04-28 05:57:25</t>
+          <t>2023-04-13 22:22:14</t>
         </is>
       </c>
       <c r="V65" t="n">
@@ -6416,38 +6420,38 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FCIT134Y2T38MO</t>
+          <t>ADYG148U2P87WT</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>573942256138</v>
+        <v>2294823290681911</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>flazz</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Xanana Hartati</t>
+          <t>dr. Cayadi Yuliarti</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Lebak Bulus - Pasar Baru via Tomang</t>
+          <t>Cibubur Junction - Blok M</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -6455,73 +6459,73 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>P00054</t>
+          <t>B00589P</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Duri Kepa</t>
+          <t>GBK Pintu 7</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>-6.185266</v>
+        <v>-6.222095</v>
       </c>
       <c r="M66" t="n">
-        <v>106.76842</v>
+        <v>106.80861</v>
       </c>
       <c r="N66" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-04-14 18:05:01</t>
+          <t>2023-04-24 17:59:35</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>P00108</t>
+          <t>B03094P</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Kebon Jeruk</t>
+          <t>Rest Area Cibubur</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>-6.194311</v>
+        <v>-6.339993</v>
       </c>
       <c r="S66" t="n">
-        <v>106.76887</v>
+        <v>106.89078</v>
       </c>
       <c r="T66" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2023-04-14 19:01:10</t>
+          <t>2023-04-24 19:28:31</t>
         </is>
       </c>
       <c r="V66" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BGVQ803F5X46HW</t>
+          <t>YELJ270M4L20OI</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4461146257530</v>
+        <v>3504089754852802</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>dr. Wisnu Wulandari</t>
+          <t>Prasetyo Astuti</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -6530,16 +6534,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1974</v>
+        <v>1988</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>9N</t>
+          <t>11B</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Pinang Ranti - Pramuka</t>
+          <t>Rusun Rawa Bebek - Penggilingan</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -6547,64 +6551,64 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>P00179</t>
+          <t>B03291P</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Pinang Ranti</t>
+          <t>Rusun Rawa Bebek</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>-6.291075</v>
+        <v>-6.196241</v>
       </c>
       <c r="M67" t="n">
-        <v>106.88634</v>
+        <v>106.9658</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-04-28 17:07:29</t>
+          <t>2023-04-14 06:11:50</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>P00016</t>
+          <t>B06655P</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>Walikota Jakarta Timur 2</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>-6.257751</v>
+        <v>-6.212722</v>
       </c>
       <c r="S67" t="n">
-        <v>106.87</v>
+        <v>106.94472</v>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>2023-04-28 18:58:39</t>
+          <t>2023-04-14 06:52:37</t>
         </is>
       </c>
       <c r="V67" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LMZA751Z0H70BP</t>
+          <t>ZZGL230M8T42NH</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6505428590869475</v>
+        <v>4631523226967560</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -6613,7 +6617,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>dr. Janet Budiyanto</t>
+          <t>H. Eka Gunarto</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6622,16 +6626,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4E</t>
+          <t>JAK.48B</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rusun Jatinegara Kaum - Pulo Gadung</t>
+          <t>Stasiun Tebet - Kampung Melayu</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -6639,73 +6643,73 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>B02943P</t>
+          <t>B01323P</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Pool Mayasari Bakti</t>
+          <t>Jln. Limo Jatinegara Timur</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>-6.202095</v>
+        <v>-6.223388</v>
       </c>
       <c r="M68" t="n">
-        <v>106.90445</v>
+        <v>106.86808</v>
       </c>
       <c r="N68" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-04-16 07:18:42</t>
+          <t>2023-04-13 07:54:42</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>B02946P</t>
+          <t>B04623P</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Pool PPD Kec. Pulo Gadung</t>
+          <t>Sekolah Cahaya Sakti Otista I</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>-6.199649</v>
+        <v>-6.225391</v>
       </c>
       <c r="S68" t="n">
-        <v>106.90477</v>
+        <v>106.86708</v>
       </c>
       <c r="T68" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2023-04-16 07:52:51</t>
+          <t>2023-04-13 08:46:57</t>
         </is>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DXHC978A4N00CO</t>
+          <t>ZZVU085C3N13CW</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4228391009711723</v>
+        <v>639040388584</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>flazz</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Nurul Hartati</t>
+          <t>Galang Megantara, S.Ked</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6714,16 +6718,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12F</t>
+          <t>JIS3</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rusun Marunda - Rusun Waduk Pluit</t>
+          <t>Harmoni - Jakarta International Stadium</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -6731,73 +6735,73 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>B06292P</t>
+          <t>B04789P</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Gg. Elektro</t>
+          <t>Simpang Danau Sunter Utara Barat</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>-6.114359</v>
+        <v>-6.139853</v>
       </c>
       <c r="M69" t="n">
-        <v>106.80286</v>
+        <v>106.85663</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-04-25 18:22:26</t>
+          <t>2023-04-07 16:55:23</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>B05530P</t>
+          <t>B01745P</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>STIP</t>
+          <t>Jembatan Item</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>-6.104402</v>
+        <v>-6.130078</v>
       </c>
       <c r="S69" t="n">
-        <v>106.95904</v>
+        <v>106.85492</v>
       </c>
       <c r="T69" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2023-04-25 19:53:30</t>
+          <t>2023-04-07 18:37:58</t>
         </is>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>XPRX406Q4W04LM</t>
+          <t>CQCM285R7R26WT</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>30294523538109</v>
+        <v>4023591971708</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>bni</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Drs. Darsirah Sitompul, S.H.</t>
+          <t>Rangga Riyanti</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6806,16 +6810,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2012</v>
+        <v>1987</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2H</t>
+          <t>M7B</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rusun Jati Rawasari - Senen</t>
+          <t>BKN - Blok M</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -6823,73 +6827,73 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>B00770P</t>
+          <t>B00257P</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Honda Letjen Suprapto</t>
+          <t>Cililitan Kecil</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>-6.174933</v>
+        <v>-6.261889</v>
       </c>
       <c r="M70" t="n">
-        <v>106.84973</v>
+        <v>106.86423</v>
       </c>
       <c r="N70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-04-26 17:47:31</t>
+          <t>2023-04-18 21:19:10</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>B03199P</t>
+          <t>B03195P</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>RSPAD 1</t>
+          <t>RSIA Duren Tiga 1</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>-6.176162</v>
+        <v>-6.253592</v>
       </c>
       <c r="S70" t="n">
-        <v>106.83987</v>
+        <v>106.8413</v>
       </c>
       <c r="T70" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>2023-04-26 19:46:40</t>
+          <t>2023-04-18 22:26:09</t>
         </is>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NHQU475U4M22YI</t>
+          <t>HCEF450S0X76RP</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4612175181278450</v>
+        <v>180050809468835</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>emoney</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mahmud Haryanti</t>
+          <t>Latika Maheswara</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6898,16 +6902,16 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1965</v>
+        <v>1996</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>JAK.24</t>
+          <t>B21</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Senen - Pulo Gadung via Kelapa Gading</t>
+          <t>Bekasi Timur - Cawang</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -6915,64 +6919,64 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>B04462P</t>
+          <t>B00883P</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sbr. SMPN 10</t>
+          <t>Jln. Bakti</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>-6.163653</v>
+        <v>-6.249166</v>
       </c>
       <c r="M71" t="n">
-        <v>106.86516</v>
+        <v>107.01577</v>
       </c>
       <c r="N71" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-04-13 21:07:01</t>
+          <t>2023-04-24 17:42:22</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>B05725P</t>
+          <t>P00019</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Term. Senen</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>-6.17356</v>
+        <v>-6.258292</v>
       </c>
       <c r="S71" t="n">
-        <v>106.84213</v>
+        <v>107.02069</v>
       </c>
       <c r="T71" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>2023-04-13 22:22:14</t>
+          <t>2023-04-24 19:40:29</t>
         </is>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ADYG148U2P87WT</t>
+          <t>HURE802R5Z36QL</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2294823290681911</v>
+        <v>3531742475032842</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -6981,99 +6985,99 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>dr. Cayadi Yuliarti</t>
+          <t>Capa Wijaya</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>6D</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cibubur Junction - Blok M</t>
+          <t>Stasiun Tebet - Karet via Underpass</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>B00589P</t>
+          <t>B02155P</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GBK Pintu 7</t>
+          <t>Satrio 6</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>-6.222095</v>
+        <v>-6.222992</v>
       </c>
       <c r="M72" t="n">
-        <v>106.80861</v>
+        <v>106.82306</v>
       </c>
       <c r="N72" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-04-24 17:59:35</t>
+          <t>2023-04-11 17:11:37</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>B03094P</t>
+          <t>B00115P</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Rest Area Cibubur</t>
+          <t>UPT. LLHD 2</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>-6.339993</v>
+        <v>-6.225501</v>
       </c>
       <c r="S72" t="n">
-        <v>106.89078</v>
+        <v>106.83489</v>
       </c>
       <c r="T72" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2023-04-24 19:28:31</t>
+          <t>2023-04-11 18:07:51</t>
         </is>
       </c>
       <c r="V72" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>YELJ270M4L20OI</t>
+          <t>NYMT665V0V47QK</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3504089754852802</v>
+        <v>36330618782725</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>bni</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Prasetyo Astuti</t>
+          <t>Kairav Halimah</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -7082,67 +7086,67 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>11B</t>
+          <t>JAK.14</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rusun Rawa Bebek - Penggilingan</t>
+          <t>Tanah Abang - Meruya</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>B03291P</t>
+          <t>B05947P</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Rusun Rawa Bebek</t>
+          <t>Kantor PJU</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>-6.196241</v>
+        <v>-6.196096</v>
       </c>
       <c r="M73" t="n">
-        <v>106.9658</v>
+        <v>106.72987</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-04-14 06:11:50</t>
+          <t>2023-04-11 18:57:06</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>B06655P</t>
+          <t>B03401P</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Walikota Jakarta Timur 2</t>
+          <t>SDN Palmerah 09</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>-6.212722</v>
+        <v>-6.207705</v>
       </c>
       <c r="S73" t="n">
-        <v>106.94472</v>
+        <v>106.78805</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2023-04-14 06:52:37</t>
+          <t>2023-04-11 20:33:19</t>
         </is>
       </c>
       <c r="V73" t="n">
@@ -7152,11 +7156,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ZZGL230M8T42NH</t>
+          <t>LGBQ528P0X18WJ</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4631523226967560</v>
+        <v>4708295371136584</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -7165,76 +7169,76 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>H. Eka Gunarto</t>
+          <t>Vega Putra</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1973</v>
+        <v>2000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>JAK.48B</t>
+          <t>2P</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Stasiun Tebet - Kampung Melayu</t>
+          <t>Gondangdia - Senen</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>B01323P</t>
+          <t>B00083P</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Jln. Limo Jatinegara Timur</t>
+          <t>Atrium 1</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>-6.223388</v>
+        <v>-6.177759</v>
       </c>
       <c r="M74" t="n">
-        <v>106.86808</v>
+        <v>106.8412</v>
       </c>
       <c r="N74" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-04-13 07:54:42</t>
+          <t>2023-04-28 07:19:38</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>B04623P</t>
+          <t>B05740P</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Sekolah Cahaya Sakti Otista I</t>
+          <t>Theresia</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>-6.225391</v>
+        <v>-6.191324</v>
       </c>
       <c r="S74" t="n">
-        <v>106.86708</v>
+        <v>106.82931</v>
       </c>
       <c r="T74" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>2023-04-13 08:46:57</t>
+          <t>2023-04-28 08:52:28</t>
         </is>
       </c>
       <c r="V74" t="n">
@@ -7244,11 +7248,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ZZVU085C3N13CW</t>
+          <t>WDAU195C1T92JZ</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>639040388584</v>
+        <v>630486994241</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -7257,7 +7261,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Galang Megantara, S.Ked</t>
+          <t>H. Aswani Megantara, M.M.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -7266,67 +7270,67 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1989</v>
+        <v>2008</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>JIS3</t>
+          <t>1P</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Harmoni - Jakarta International Stadium</t>
+          <t>Senen - Blok M</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>B04789P</t>
+          <t>B05775P</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Simpang Danau Sunter Utara Barat</t>
+          <t>Tosari 3</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>-6.139853</v>
+        <v>-6.200069</v>
       </c>
       <c r="M75" t="n">
-        <v>106.85663</v>
+        <v>106.82335</v>
       </c>
       <c r="N75" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-04-07 16:55:23</t>
+          <t>2023-04-27 17:48:16</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>B01745P</t>
+          <t>B05637P</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>Jembatan Item</t>
+          <t>Taman Patimura</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>-6.130078</v>
+        <v>-6.232872</v>
       </c>
       <c r="S75" t="n">
-        <v>106.85492</v>
+        <v>106.80081</v>
       </c>
       <c r="T75" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2023-04-07 18:37:58</t>
+          <t>2023-04-27 19:30:10</t>
         </is>
       </c>
       <c r="V75" t="n">
@@ -7336,20 +7340,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CQCM285R7R26WT</t>
+          <t>ECVQ969C2E20RC</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4023591971708</v>
+        <v>180060352930644</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>emoney</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Rangga Riyanti</t>
+          <t>R. Sabrina Megantara</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -7358,159 +7362,159 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1987</v>
+        <v>1997</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>M7B</t>
+          <t>11K</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>BKN - Blok M</t>
+          <t>Rusun Komarudin - Penggilingan</t>
         </is>
       </c>
       <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>P00169</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Penggilingan</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>-6.214132</v>
+      </c>
+      <c r="M76" t="n">
+        <v>106.93961</v>
+      </c>
+      <c r="N76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>B00257P</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Cililitan Kecil</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>-6.261889</v>
-      </c>
-      <c r="M76" t="n">
-        <v>106.86423</v>
-      </c>
-      <c r="N76" t="n">
-        <v>3</v>
-      </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-04-18 21:19:10</t>
+          <t>2023-04-20 16:55:43</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>B03195P</t>
+          <t>B03281P</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>RSIA Duren Tiga 1</t>
+          <t>Rusun Komarudin</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>-6.253592</v>
+        <v>-6.208781</v>
       </c>
       <c r="S76" t="n">
-        <v>106.8413</v>
+        <v>106.94252</v>
       </c>
       <c r="T76" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>2023-04-18 22:26:09</t>
+          <t>2023-04-20 18:45:58</t>
         </is>
       </c>
       <c r="V76" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HCEF450S0X76RP</t>
+          <t>BYNZ057R5I56KT</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>180050809468835</v>
+        <v>3548650711273610</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>emoney</t>
+          <t>dki</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Latika Maheswara</t>
+          <t>Balangga Permadi</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>3F</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bekasi Timur - Cawang</t>
+          <t>Kalideres - Gelora Bung Karno</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>B00883P</t>
+          <t>P00282</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Jln. Bakti</t>
+          <t>Grogol 2 Arah Selatan</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>-6.249166</v>
+        <v>-6.167435</v>
       </c>
       <c r="M77" t="n">
-        <v>107.01577</v>
+        <v>106.78856</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-04-24 17:42:22</t>
+          <t>2023-04-07 16:20:00</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>P00019</t>
+          <t>P00212</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>S Parman Podomoro City Arah Timur</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>-6.258292</v>
+        <v>-6.175799</v>
       </c>
       <c r="S77" t="n">
-        <v>107.02069</v>
+        <v>106.79308</v>
       </c>
       <c r="T77" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2023-04-24 19:40:29</t>
+          <t>2023-04-07 17:41:49</t>
         </is>
       </c>
       <c r="V77" t="n">
@@ -7520,11 +7524,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HURE802R5Z36QL</t>
+          <t>JOFI988Y5C51WJ</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3531742475032842</v>
+        <v>2647723044055343</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -7533,7 +7537,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Capa Wijaya</t>
+          <t>Saadat Halimah</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7542,16 +7546,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>6D</t>
+          <t>JAK.74</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Stasiun Tebet - Karet via Underpass</t>
+          <t>Terminal Rawamangun - Cipinang Muara</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -7559,73 +7563,73 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>B02155P</t>
+          <t>B02527P</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Satrio 6</t>
+          <t>Nabawi Islamic School</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>-6.222992</v>
+        <v>-6.205542</v>
       </c>
       <c r="M78" t="n">
-        <v>106.82306</v>
+        <v>106.89008</v>
       </c>
       <c r="N78" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-04-11 17:11:37</t>
+          <t>2023-04-12 08:20:07</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>B00115P</t>
+          <t>B03223P</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>UPT. LLHD 2</t>
+          <t>Rukan Balai Pustaka</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>-6.225501</v>
+        <v>-6.198484</v>
       </c>
       <c r="S78" t="n">
-        <v>106.83489</v>
+        <v>106.88611</v>
       </c>
       <c r="T78" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>2023-04-11 18:07:51</t>
+          <t>2023-04-12 09:54:53</t>
         </is>
       </c>
       <c r="V78" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NYMT665V0V47QK</t>
+          <t>RITA262E7E82UN</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>36330618782725</v>
+        <v>4459391777491</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>bni</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kairav Halimah</t>
+          <t>Paramita Salahudin</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -7634,90 +7638,90 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1984</v>
+        <v>2004</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>JAK.14</t>
+          <t>1M</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Tanah Abang - Meruya</t>
+          <t>Meruya - Blok M</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>B05947P</t>
+          <t>B01012P</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Kantor PJU</t>
+          <t>Jln. Cipulir 1</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>-6.196096</v>
+        <v>-6.237267</v>
       </c>
       <c r="M79" t="n">
-        <v>106.72987</v>
+        <v>106.7754</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-04-11 18:57:06</t>
+          <t>2023-04-23 13:44:17</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>B03401P</t>
+          <t>B03171P</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>SDN Palmerah 09</t>
+          <t>RS Pusat Pertamina 3</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>-6.207705</v>
+        <v>-6.239806</v>
       </c>
       <c r="S79" t="n">
-        <v>106.78805</v>
+        <v>106.79431</v>
       </c>
       <c r="T79" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2023-04-11 20:33:19</t>
+          <t>2023-04-23 14:40:04</t>
         </is>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LGBQ528P0X18WJ</t>
+          <t>VWWN485B8S19BH</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4708295371136584</v>
+        <v>565431772831</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>flazz</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Vega Putra</t>
+          <t>Azalea Setiawan, S.E.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7726,67 +7730,63 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2P</t>
+          <t>10D</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Gondangdia - Senen</t>
+          <t>Kampung Rambutan - Tanjung Priok</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>B00083P</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Atrium 1</t>
+          <t>Kampung Rambutan</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>-6.177759</v>
+        <v>-6.309885</v>
       </c>
       <c r="M80" t="n">
-        <v>106.8412</v>
+        <v>106.88216</v>
       </c>
       <c r="N80" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-04-28 07:19:38</t>
+          <t>2023-04-13 16:46:11</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>B05740P</t>
+          <t>P00241</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Theresia</t>
+          <t>Sunter Kelapa Gading Arah Utara</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>-6.191324</v>
+        <v>-6.1429</v>
       </c>
       <c r="S80" t="n">
-        <v>106.82931</v>
+        <v>106.89076</v>
       </c>
       <c r="T80" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>2023-04-28 08:52:28</t>
+          <t>2023-04-13 17:41:52</t>
         </is>
       </c>
       <c r="V80" t="n">
@@ -7796,20 +7796,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WDAU195C1T92JZ</t>
+          <t>BBPT453G5V22LE</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>630486994241</v>
+        <v>4.997693930906135e+18</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>flazz</t>
+          <t>brizzi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>H. Aswani Megantara, M.M.</t>
+          <t>Cahyo Hutagalung, S.Pt</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7818,90 +7818,90 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1P</t>
+          <t>JAK.06</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Senen - Blok M</t>
+          <t>Kampung Rambutan - Pondok Gede</t>
         </is>
       </c>
       <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>B02029P</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Komplek Dirgantara III Halim PK</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>-6.284809</v>
+      </c>
+      <c r="M81" t="n">
+        <v>106.90458</v>
+      </c>
+      <c r="N81" t="n">
+        <v>48</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2023-04-06 17:34:15</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>B02929P</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Pondok Molek</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>-6.284344</v>
+      </c>
+      <c r="S81" t="n">
+        <v>106.90862</v>
+      </c>
+      <c r="T81" t="n">
+        <v>50</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>2023-04-06 18:39:58</t>
+        </is>
+      </c>
+      <c r="V81" t="n">
         <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>B05775P</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Tosari 3</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>-6.200069</v>
-      </c>
-      <c r="M81" t="n">
-        <v>106.82335</v>
-      </c>
-      <c r="N81" t="n">
-        <v>20</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>2023-04-27 17:48:16</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>B05637P</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>Taman Patimura</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>-6.232872</v>
-      </c>
-      <c r="S81" t="n">
-        <v>106.80081</v>
-      </c>
-      <c r="T81" t="n">
-        <v>30</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>2023-04-27 19:30:10</t>
-        </is>
-      </c>
-      <c r="V81" t="n">
-        <v>3500</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ECVQ969C2E20RC</t>
+          <t>KHBW997R7P66CY</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>180060352930644</v>
+        <v>4.997693930906135e+18</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>emoney</t>
+          <t>brizzi</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R. Sabrina Megantara</t>
+          <t>Cahyo Hutagalung, S.Pt</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -7910,16 +7910,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11K</t>
+          <t>JAK.06</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rusun Komarudin - Penggilingan</t>
+          <t>Kampung Rambutan - Pondok Gede</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -7927,50 +7927,50 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>P00169</t>
+          <t>B02029P</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Penggilingan</t>
+          <t>Komplek Dirgantara III Halim PK</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>-6.214132</v>
+        <v>-6.284809</v>
       </c>
       <c r="M82" t="n">
-        <v>106.93961</v>
+        <v>106.90458</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-04-20 16:55:43</t>
+          <t>2023-04-20 16:17:47</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>B03281P</t>
+          <t>B02929P</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Rusun Komarudin</t>
+          <t>Pondok Molek</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>-6.208781</v>
+        <v>-6.284344</v>
       </c>
       <c r="S82" t="n">
-        <v>106.94252</v>
+        <v>106.90862</v>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>2023-04-20 18:45:58</t>
+          <t>2023-04-20 17:20:19</t>
         </is>
       </c>
       <c r="V82" t="n">
@@ -7980,38 +7980,38 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BYNZ057R5I56KT</t>
+          <t>STUN457W6R43GS</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3548650711273610</v>
+        <v>4357457456440</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Balangga Permadi</t>
+          <t>Legawa Wulandari</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3F</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Kalideres - Gelora Bung Karno</t>
+          <t>Cinere - Bundaran Senayan</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -8019,73 +8019,73 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>P00282</t>
+          <t>B06073P</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Grogol 2 Arah Selatan</t>
+          <t>SPBU Limo Cinere 1</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>-6.167435</v>
+        <v>-6.343161</v>
       </c>
       <c r="M83" t="n">
-        <v>106.78856</v>
+        <v>106.77878</v>
       </c>
       <c r="N83" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-04-07 16:20:00</t>
+          <t>2023-04-06 08:31:12</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>P00212</t>
+          <t>B05399P</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>S Parman Podomoro City Arah Timur</t>
+          <t>South City Cinere</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>-6.175799</v>
+        <v>-6.34504</v>
       </c>
       <c r="S83" t="n">
-        <v>106.79308</v>
+        <v>106.767638</v>
       </c>
       <c r="T83" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>2023-04-07 17:41:49</t>
+          <t>2023-04-06 09:43:49</t>
         </is>
       </c>
       <c r="V83" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>JOFI988Y5C51WJ</t>
+          <t>CKJS000Z2J65NI</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2647723044055343</v>
+        <v>630465586752</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>dki</t>
+          <t>flazz</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Saadat Halimah</t>
+          <t>Winda Puspita</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -8094,16 +8094,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1986</v>
+        <v>1959</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>JAK.74</t>
+          <t>6Q</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Terminal Rawamangun - Cipinang Muara</t>
+          <t>Dukuh Atas - Casablanca via Epicentrum Raya</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -8111,73 +8111,73 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>B02527P</t>
+          <t>B05739P</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nabawi Islamic School</t>
+          <t>The Wave</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>-6.205542</v>
+        <v>-6.214587</v>
       </c>
       <c r="M84" t="n">
-        <v>106.89008</v>
+        <v>106.83642</v>
       </c>
       <c r="N84" t="n">
+        <v>7</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2023-04-04 06:04:34</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>B03396P</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Kota Kasablanka</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>-6.224688</v>
+      </c>
+      <c r="S84" t="n">
+        <v>106.84246</v>
+      </c>
+      <c r="T84" t="n">
         <v>11</v>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>2023-04-12 08:20:07</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>B03223P</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>Rukan Balai Pustaka</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>-6.198484</v>
-      </c>
-      <c r="S84" t="n">
-        <v>106.88611</v>
-      </c>
-      <c r="T84" t="n">
-        <v>17</v>
-      </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2023-04-12 09:54:53</t>
+          <t>2023-04-04 06:32:40</t>
         </is>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RITA262E7E82UN</t>
+          <t>ZADQ516V4H52BM</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4459391777491</v>
+        <v>587887634588</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>flazz</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Paramita Salahudin</t>
+          <t>Drs. Harjo Nurdiyanti</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -8186,16 +8186,16 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2004</v>
+        <v>1986</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Meruya - Blok M</t>
+          <t>Jakarta International Stadium - Senen</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -8203,597 +8203,49 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>B01012P</t>
+          <t>B00292P</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Jln. Cipulir 1</t>
+          <t>Danau Agung 1</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>-6.237267</v>
+        <v>-6.147281</v>
       </c>
       <c r="M85" t="n">
-        <v>106.7754</v>
+        <v>106.8582</v>
       </c>
       <c r="N85" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-04-23 13:44:17</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>B03171P</t>
-        </is>
-      </c>
+          <t>2023-04-28 06:49:00</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>RS Pusat Pertamina 3</t>
+          <t>Honda Letjen Suprapto</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>-6.239806</v>
+        <v>-6.174933</v>
       </c>
       <c r="S85" t="n">
-        <v>106.79431</v>
+        <v>106.84973</v>
       </c>
       <c r="T85" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2023-04-23 14:40:04</t>
+          <t>2023-04-28 07:21:56</t>
         </is>
       </c>
       <c r="V85" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>VWWN485B8S19BH</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>565431772831</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>flazz</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Azalea Setiawan, S.E.</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>2007</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>10D</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Kampung Rambutan - Tanjung Priok</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Kampung Rambutan</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>-6.309885</v>
-      </c>
-      <c r="M86" t="n">
-        <v>106.88216</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>2023-04-13 16:46:11</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>P00241</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>Sunter Kelapa Gading Arah Utara</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>-6.1429</v>
-      </c>
-      <c r="S86" t="n">
-        <v>106.89076</v>
-      </c>
-      <c r="T86" t="n">
-        <v>12</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>2023-04-13 17:41:52</t>
-        </is>
-      </c>
-      <c r="V86" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>BBPT453G5V22LE</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>4.997693930906135e+18</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>brizzi</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Cahyo Hutagalung, S.Pt</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>1989</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>JAK.06</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Kampung Rambutan - Pondok Gede</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>B02029P</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Komplek Dirgantara III Halim PK</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>-6.284809</v>
-      </c>
-      <c r="M87" t="n">
-        <v>106.90458</v>
-      </c>
-      <c r="N87" t="n">
-        <v>48</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>2023-04-06 17:34:15</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>B02929P</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>Pondok Molek</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>-6.284344</v>
-      </c>
-      <c r="S87" t="n">
-        <v>106.90862</v>
-      </c>
-      <c r="T87" t="n">
-        <v>50</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>2023-04-06 18:39:58</t>
-        </is>
-      </c>
-      <c r="V87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>KHBW997R7P66CY</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>4.997693930906135e+18</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>brizzi</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Cahyo Hutagalung, S.Pt</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1989</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>JAK.06</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Kampung Rambutan - Pondok Gede</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>B02029P</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Komplek Dirgantara III Halim PK</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>-6.284809</v>
-      </c>
-      <c r="M88" t="n">
-        <v>106.90458</v>
-      </c>
-      <c r="N88" t="n">
-        <v>48</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>2023-04-20 16:17:47</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>B02929P</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>Pondok Molek</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>-6.284344</v>
-      </c>
-      <c r="S88" t="n">
-        <v>106.90862</v>
-      </c>
-      <c r="T88" t="n">
-        <v>50</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>2023-04-20 17:20:19</t>
-        </is>
-      </c>
-      <c r="V88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>STUN457W6R43GS</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>4357457456440</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>online</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Legawa Wulandari</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>D32</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Cinere - Bundaran Senayan</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>B06073P</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>SPBU Limo Cinere 1</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>-6.343161</v>
-      </c>
-      <c r="M89" t="n">
-        <v>106.77878</v>
-      </c>
-      <c r="N89" t="n">
-        <v>5</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>2023-04-06 08:31:12</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>B05399P</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>South City Cinere</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>-6.34504</v>
-      </c>
-      <c r="S89" t="n">
-        <v>106.767638</v>
-      </c>
-      <c r="T89" t="n">
-        <v>6</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>2023-04-06 09:43:49</t>
-        </is>
-      </c>
-      <c r="V89" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>CKJS000Z2J65NI</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>630465586752</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>flazz</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Winda Puspita</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1959</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>6Q</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Dukuh Atas - Casablanca via Epicentrum Raya</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>B05739P</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>The Wave</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>-6.214587</v>
-      </c>
-      <c r="M90" t="n">
-        <v>106.83642</v>
-      </c>
-      <c r="N90" t="n">
-        <v>7</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>2023-04-04 06:04:34</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>B03396P</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>Kota Kasablanka</t>
-        </is>
-      </c>
-      <c r="R90" t="n">
-        <v>-6.224688</v>
-      </c>
-      <c r="S90" t="n">
-        <v>106.84246</v>
-      </c>
-      <c r="T90" t="n">
-        <v>11</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>2023-04-04 06:32:40</t>
-        </is>
-      </c>
-      <c r="V90" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>ZADQ516V4H52BM</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>587887634588</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>flazz</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Drs. Harjo Nurdiyanti</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1986</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Jakarta International Stadium - Senen</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>B00292P</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Danau Agung 1</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>-6.147281</v>
-      </c>
-      <c r="M91" t="n">
-        <v>106.8582</v>
-      </c>
-      <c r="N91" t="n">
-        <v>8</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>2023-04-28 06:49:00</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>Honda Letjen Suprapto</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>-6.174933</v>
-      </c>
-      <c r="S91" t="n">
-        <v>106.84973</v>
-      </c>
-      <c r="T91" t="n">
-        <v>16</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>2023-04-28 07:21:56</t>
-        </is>
-      </c>
-      <c r="V91" t="n">
         <v>3500</v>
       </c>
     </row>
